--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4537,28 +4537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.254404456335</v>
+        <v>206.6706140967768</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.9495872712701</v>
+        <v>282.7758518710809</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.7172056089665</v>
+        <v>255.7881214469889</v>
       </c>
       <c r="AD2" t="n">
-        <v>170254.404456335</v>
+        <v>206670.6140967768</v>
       </c>
       <c r="AE2" t="n">
-        <v>232949.5872712701</v>
+        <v>282775.8518710809</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.78935693691993e-06</v>
+        <v>5.161040627196399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.44849537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>210717.2056089665</v>
+        <v>255788.1214469889</v>
       </c>
     </row>
     <row r="3">
@@ -4643,28 +4643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.9696357807067</v>
+        <v>173.4710967671691</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.4078983489402</v>
+        <v>237.3508076014002</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.5219515592074</v>
+        <v>214.698379647942</v>
       </c>
       <c r="AD3" t="n">
-        <v>136969.6357807067</v>
+        <v>173471.0967671691</v>
       </c>
       <c r="AE3" t="n">
-        <v>187407.8983489402</v>
+        <v>237350.8076014002</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.175157058523594e-06</v>
+        <v>5.874871860201836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.78587962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>169521.9515592074</v>
+        <v>214698.379647942</v>
       </c>
     </row>
     <row r="4">
@@ -4749,28 +4749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.1205432909768</v>
+        <v>149.4264931723122</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.1954472594327</v>
+        <v>204.4519201898886</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.8567940473594</v>
+        <v>184.939315877096</v>
       </c>
       <c r="AD4" t="n">
-        <v>125120.5432909768</v>
+        <v>149426.4931723122</v>
       </c>
       <c r="AE4" t="n">
-        <v>171195.4472594327</v>
+        <v>204451.9201898886</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.45093114490269e-06</v>
+        <v>6.385126121638201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.403935185185186</v>
       </c>
       <c r="AH4" t="n">
-        <v>154856.7940473594</v>
+        <v>184939.315877096</v>
       </c>
     </row>
     <row r="5">
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.7299420961394</v>
+        <v>141.0358919774748</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.7150565374624</v>
+        <v>192.9715294679183</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.4720757030607</v>
+        <v>174.5545975327973</v>
       </c>
       <c r="AD5" t="n">
-        <v>116729.9420961394</v>
+        <v>141035.8919774749</v>
       </c>
       <c r="AE5" t="n">
-        <v>159715.0565374624</v>
+        <v>192971.5294679183</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.666571670264063e-06</v>
+        <v>6.784117551357821e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.143518518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>144472.0757030607</v>
+        <v>174554.5975327973</v>
       </c>
     </row>
     <row r="6">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.5532001258405</v>
+        <v>136.8591500071759</v>
       </c>
       <c r="AB6" t="n">
-        <v>154.0002539088513</v>
+        <v>187.2567268393072</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.3026858165466</v>
+        <v>169.3852076462832</v>
       </c>
       <c r="AD6" t="n">
-        <v>112553.2001258405</v>
+        <v>136859.150007176</v>
       </c>
       <c r="AE6" t="n">
-        <v>154000.2539088513</v>
+        <v>187256.7268393072</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.783897762241001e-06</v>
+        <v>7.001201539178968e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.016203703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>139302.6858165466</v>
+        <v>169385.2076462832</v>
       </c>
     </row>
     <row r="7">
@@ -5067,28 +5067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>99.72090500874904</v>
+        <v>136.1370251406398</v>
       </c>
       <c r="AB7" t="n">
-        <v>136.4425416087498</v>
+        <v>186.2686837390123</v>
       </c>
       <c r="AC7" t="n">
-        <v>123.4206569359572</v>
+        <v>168.4914619927529</v>
       </c>
       <c r="AD7" t="n">
-        <v>99720.90500874905</v>
+        <v>136137.0251406398</v>
       </c>
       <c r="AE7" t="n">
-        <v>136442.5416087498</v>
+        <v>186268.6837390123</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.801491424198152e-06</v>
+        <v>7.033754420074262e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.998842592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>123420.6569359572</v>
+        <v>168491.4619927529</v>
       </c>
     </row>
   </sheetData>
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>326.3135698839107</v>
+        <v>391.5785631709821</v>
       </c>
       <c r="AB2" t="n">
-        <v>446.4766222538566</v>
+        <v>535.7750653575214</v>
       </c>
       <c r="AC2" t="n">
-        <v>403.8655200598227</v>
+        <v>484.6414450848259</v>
       </c>
       <c r="AD2" t="n">
-        <v>326313.5698839107</v>
+        <v>391578.5631709821</v>
       </c>
       <c r="AE2" t="n">
-        <v>446476.6222538566</v>
+        <v>535775.0653575214</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.789422747749644e-06</v>
+        <v>3.139056732931261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.945601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>403865.5200598227</v>
+        <v>484641.4450848259</v>
       </c>
     </row>
     <row r="3">
@@ -5470,28 +5470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.0019818595714</v>
+        <v>286.1781355112827</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.9590085384783</v>
+        <v>391.5615502948286</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.7046750921141</v>
+        <v>354.1914654947768</v>
       </c>
       <c r="AD3" t="n">
-        <v>247001.9818595714</v>
+        <v>286178.1355112827</v>
       </c>
       <c r="AE3" t="n">
-        <v>337959.0085384783</v>
+        <v>391561.5502948287</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.196424659483458e-06</v>
+        <v>3.853031165720057e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.472800925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>305704.6750921141</v>
+        <v>354191.4654947768</v>
       </c>
     </row>
     <row r="4">
@@ -5576,28 +5576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.235682970159</v>
+        <v>243.4970879678873</v>
       </c>
       <c r="AB4" t="n">
-        <v>279.4442716820642</v>
+        <v>333.1634580908727</v>
       </c>
       <c r="AC4" t="n">
-        <v>252.7745025953086</v>
+        <v>301.3668052486292</v>
       </c>
       <c r="AD4" t="n">
-        <v>204235.682970159</v>
+        <v>243497.0879678873</v>
       </c>
       <c r="AE4" t="n">
-        <v>279444.2716820642</v>
+        <v>333163.4580908727</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.484416716065842e-06</v>
+        <v>4.358235095525098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.72337962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>252774.5025953086</v>
+        <v>301366.8052486292</v>
       </c>
     </row>
     <row r="5">
@@ -5682,28 +5682,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>186.7885611698113</v>
+        <v>212.9629206768478</v>
       </c>
       <c r="AB5" t="n">
-        <v>255.5723499221502</v>
+        <v>291.3852633309043</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.1808835437006</v>
+        <v>263.5758627604741</v>
       </c>
       <c r="AD5" t="n">
-        <v>186788.5611698113</v>
+        <v>212962.9206768478</v>
       </c>
       <c r="AE5" t="n">
-        <v>255572.3499221501</v>
+        <v>291385.2633309042</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.707547910220526e-06</v>
+        <v>4.749658239228337e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.251736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>231180.8835437006</v>
+        <v>263575.8627604741</v>
       </c>
     </row>
     <row r="6">
@@ -5788,28 +5788,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.9904636222785</v>
+        <v>201.1665277654351</v>
       </c>
       <c r="AB6" t="n">
-        <v>221.6424988427808</v>
+        <v>275.2449181293916</v>
       </c>
       <c r="AC6" t="n">
-        <v>200.4892498304903</v>
+        <v>248.9759294518721</v>
       </c>
       <c r="AD6" t="n">
-        <v>161990.4636222785</v>
+        <v>201166.5277654351</v>
       </c>
       <c r="AE6" t="n">
-        <v>221642.4988427808</v>
+        <v>275244.9181293916</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.885817007862718e-06</v>
+        <v>5.06238300587783e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.927662037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>200489.2498304903</v>
+        <v>248975.9294518721</v>
       </c>
     </row>
     <row r="7">
@@ -5894,28 +5894,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.8960452050258</v>
+        <v>192.0721093481824</v>
       </c>
       <c r="AB7" t="n">
-        <v>209.1991143468778</v>
+        <v>262.8015336334886</v>
       </c>
       <c r="AC7" t="n">
-        <v>189.2334444864725</v>
+        <v>237.7201241078543</v>
       </c>
       <c r="AD7" t="n">
-        <v>152896.0452050258</v>
+        <v>192072.1093481825</v>
       </c>
       <c r="AE7" t="n">
-        <v>209199.1143468778</v>
+        <v>262801.5336334886</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.042121858910075e-06</v>
+        <v>5.336577460870123e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.673032407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>189233.4444864725</v>
+        <v>237720.1241078543</v>
       </c>
     </row>
     <row r="8">
@@ -6000,28 +6000,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>146.9354750756796</v>
+        <v>173.1950859287367</v>
       </c>
       <c r="AB8" t="n">
-        <v>201.0435993341152</v>
+        <v>236.9731573955185</v>
       </c>
       <c r="AC8" t="n">
-        <v>181.8562803801882</v>
+        <v>214.3567718476741</v>
       </c>
       <c r="AD8" t="n">
-        <v>146935.4750756796</v>
+        <v>173195.0859287367</v>
       </c>
       <c r="AE8" t="n">
-        <v>201043.5993341152</v>
+        <v>236973.1573955185</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.156463697447391e-06</v>
+        <v>5.537159195157161e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>181856.2803801882</v>
+        <v>214356.771847674</v>
       </c>
     </row>
     <row r="9">
@@ -6106,28 +6106,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>141.4098818764082</v>
+        <v>167.4989005288732</v>
       </c>
       <c r="AB9" t="n">
-        <v>193.4832389469086</v>
+        <v>229.179385233465</v>
       </c>
       <c r="AC9" t="n">
-        <v>175.0174701773017</v>
+        <v>207.3068263621365</v>
       </c>
       <c r="AD9" t="n">
-        <v>141409.8818764082</v>
+        <v>167498.9005288732</v>
       </c>
       <c r="AE9" t="n">
-        <v>193483.2389469086</v>
+        <v>229179.385233465</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.265056504996797e-06</v>
+        <v>5.727655814312448e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.354745370370371</v>
       </c>
       <c r="AH9" t="n">
-        <v>175017.4701773017</v>
+        <v>207306.8263621365</v>
       </c>
     </row>
     <row r="10">
@@ -6212,28 +6212,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>136.7071333374133</v>
+        <v>162.7961519898782</v>
       </c>
       <c r="AB10" t="n">
-        <v>187.0487309252359</v>
+        <v>222.7448772117923</v>
       </c>
       <c r="AC10" t="n">
-        <v>169.1970625703267</v>
+        <v>201.4864187551615</v>
       </c>
       <c r="AD10" t="n">
-        <v>136707.1333374133</v>
+        <v>162796.1519898782</v>
       </c>
       <c r="AE10" t="n">
-        <v>187048.7309252359</v>
+        <v>222744.8772117923</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.361758154434458e-06</v>
+        <v>5.897292622682404e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.230324074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>169197.0625703267</v>
+        <v>201486.4187551615</v>
       </c>
     </row>
     <row r="11">
@@ -6318,28 +6318,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>132.6119849327476</v>
+        <v>158.7010035852126</v>
       </c>
       <c r="AB11" t="n">
-        <v>181.4455682127783</v>
+        <v>217.1417144993347</v>
       </c>
       <c r="AC11" t="n">
-        <v>164.1286578430559</v>
+        <v>196.4180140278908</v>
       </c>
       <c r="AD11" t="n">
-        <v>132611.9849327476</v>
+        <v>158701.0035852126</v>
       </c>
       <c r="AE11" t="n">
-        <v>181445.5682127782</v>
+        <v>217141.7144993347</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.446716056811346e-06</v>
+        <v>6.046328212962718e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.126157407407407</v>
       </c>
       <c r="AH11" t="n">
-        <v>164128.657843056</v>
+        <v>196418.0140278907</v>
       </c>
     </row>
     <row r="12">
@@ -6424,28 +6424,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>128.7304680296323</v>
+        <v>154.8194866820972</v>
       </c>
       <c r="AB12" t="n">
-        <v>176.1347055454983</v>
+        <v>211.8308518320547</v>
       </c>
       <c r="AC12" t="n">
-        <v>159.3246564548969</v>
+        <v>191.6140126397318</v>
       </c>
       <c r="AD12" t="n">
-        <v>128730.4680296323</v>
+        <v>154819.4866820972</v>
       </c>
       <c r="AE12" t="n">
-        <v>176134.7055454983</v>
+        <v>211830.8518320547</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.523910310503706e-06</v>
+        <v>6.181744587936905e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.033564814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>159324.6564548969</v>
+        <v>191614.0126397318</v>
       </c>
     </row>
     <row r="13">
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>113.8134932322053</v>
+        <v>152.9042165207903</v>
       </c>
       <c r="AB13" t="n">
-        <v>155.7246425371866</v>
+        <v>209.2102947015998</v>
       </c>
       <c r="AC13" t="n">
-        <v>140.8625012143886</v>
+        <v>189.2435578038316</v>
       </c>
       <c r="AD13" t="n">
-        <v>113813.4932322053</v>
+        <v>152904.2165207903</v>
       </c>
       <c r="AE13" t="n">
-        <v>155724.6425371866</v>
+        <v>209210.2947015998</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.558797592567091e-06</v>
+        <v>6.242944859249238e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.995949074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>140862.5012143886</v>
+        <v>189243.5578038316</v>
       </c>
     </row>
     <row r="14">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>127.9564001702571</v>
+        <v>154.045418822722</v>
       </c>
       <c r="AB14" t="n">
-        <v>175.0755917508379</v>
+        <v>210.7717380373943</v>
       </c>
       <c r="AC14" t="n">
-        <v>158.366622994323</v>
+        <v>190.6559791791578</v>
       </c>
       <c r="AD14" t="n">
-        <v>127956.4001702571</v>
+        <v>154045.418822722</v>
       </c>
       <c r="AE14" t="n">
-        <v>175075.5917508379</v>
+        <v>210771.7380373943</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.534622180207675e-06</v>
+        <v>6.200535657156748e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.021990740740741</v>
       </c>
       <c r="AH14" t="n">
-        <v>158366.622994323</v>
+        <v>190655.9791791578</v>
       </c>
     </row>
   </sheetData>
@@ -6933,28 +6933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.6000674280741</v>
+        <v>170.070247080415</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.7975062740065</v>
+        <v>232.6976150250865</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.351568833178</v>
+        <v>210.4892812403133</v>
       </c>
       <c r="AD2" t="n">
-        <v>133600.0674280741</v>
+        <v>170070.247080415</v>
       </c>
       <c r="AE2" t="n">
-        <v>182797.5062740065</v>
+        <v>232697.6150250865</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.689622394105851e-06</v>
+        <v>6.726541493474887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.378472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>165351.568833178</v>
+        <v>210489.2812403133</v>
       </c>
     </row>
   </sheetData>
@@ -7230,28 +7230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.50897155031984</v>
+        <v>119.0516141529848</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.4160766673114</v>
+        <v>162.891670670579</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.6830335608584</v>
+        <v>147.3455182417196</v>
       </c>
       <c r="AD2" t="n">
-        <v>97508.97155031984</v>
+        <v>119051.6141529848</v>
       </c>
       <c r="AE2" t="n">
-        <v>133416.0766673114</v>
+        <v>162891.670670579</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.949900755844092e-06</v>
+        <v>8.133965287722132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.305555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>120683.0335608584</v>
+        <v>147345.5182417196</v>
       </c>
     </row>
   </sheetData>
@@ -7527,28 +7527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.2968775011371</v>
+        <v>216.1828506719798</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.3218978169181</v>
+        <v>295.7909136035275</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.9087202007887</v>
+        <v>267.5610439544487</v>
       </c>
       <c r="AD2" t="n">
-        <v>179296.8775011371</v>
+        <v>216182.8506719799</v>
       </c>
       <c r="AE2" t="n">
-        <v>245321.8978169181</v>
+        <v>295790.9136035275</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.672571324424777e-06</v>
+        <v>4.913047250020616e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.642361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>221908.7202007887</v>
+        <v>267561.0439544487</v>
       </c>
     </row>
     <row r="3">
@@ -7633,28 +7633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.2332910235157</v>
+        <v>180.0339233397869</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.978107785114</v>
+        <v>246.3303564495258</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.27423223516</v>
+        <v>222.8209329568812</v>
       </c>
       <c r="AD3" t="n">
-        <v>143233.2910235157</v>
+        <v>180033.9233397869</v>
       </c>
       <c r="AE3" t="n">
-        <v>195978.107785114</v>
+        <v>246330.3564495258</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.066577549320473e-06</v>
+        <v>5.637357648034577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.918981481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>177274.23223516</v>
+        <v>222820.9329568812</v>
       </c>
     </row>
     <row r="4">
@@ -7739,28 +7739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.364420162723</v>
+        <v>155.0404097978564</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.3703509388724</v>
+        <v>212.1331285854763</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.3469349896762</v>
+        <v>191.887440524055</v>
       </c>
       <c r="AD4" t="n">
-        <v>130364.4201627229</v>
+        <v>155040.4097978564</v>
       </c>
       <c r="AE4" t="n">
-        <v>178370.3509388724</v>
+        <v>212133.1285854763</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.346447050337654e-06</v>
+        <v>6.151847970433381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>161346.9349896762</v>
+        <v>191887.440524055</v>
       </c>
     </row>
     <row r="5">
@@ -7845,28 +7845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.863202589466</v>
+        <v>146.3686000240073</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.7386100078982</v>
+        <v>200.2679758796553</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.8253110878996</v>
+        <v>181.1546813396273</v>
       </c>
       <c r="AD5" t="n">
-        <v>121863.202589466</v>
+        <v>146368.6000240073</v>
       </c>
       <c r="AE5" t="n">
-        <v>166738.6100078982</v>
+        <v>200267.9758796553</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.5550201868499e-06</v>
+        <v>6.535272601762994e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.241898148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>150825.3110878996</v>
+        <v>181154.6813396273</v>
       </c>
     </row>
     <row r="6">
@@ -7951,28 +7951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.5704854105976</v>
+        <v>140.0758828451388</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.128636748686</v>
+        <v>191.658002620443</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.0370615923704</v>
+        <v>173.3664318440981</v>
       </c>
       <c r="AD6" t="n">
-        <v>115570.4854105976</v>
+        <v>140075.8828451388</v>
       </c>
       <c r="AE6" t="n">
-        <v>158128.636748686</v>
+        <v>191658.002620443</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.714863717505337e-06</v>
+        <v>6.829116515877917e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.059606481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>143037.0615923704</v>
+        <v>173366.4318440981</v>
       </c>
     </row>
     <row r="7">
@@ -8057,28 +8057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>113.8609348305993</v>
+        <v>138.3663322651406</v>
       </c>
       <c r="AB7" t="n">
-        <v>155.7895542250848</v>
+        <v>189.3189200968418</v>
       </c>
       <c r="AC7" t="n">
-        <v>140.921217821898</v>
+        <v>171.2505880736258</v>
       </c>
       <c r="AD7" t="n">
-        <v>113860.9348305993</v>
+        <v>138366.3322651405</v>
       </c>
       <c r="AE7" t="n">
-        <v>155789.5542250848</v>
+        <v>189318.9200968418</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.757912545780977e-06</v>
+        <v>6.9082541334387e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.013310185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>140921.217821898</v>
+        <v>171250.5880736258</v>
       </c>
     </row>
     <row r="8">
@@ -8163,28 +8163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>113.9524376289052</v>
+        <v>138.4578350634464</v>
       </c>
       <c r="AB8" t="n">
-        <v>155.9147523905454</v>
+        <v>189.4441182623024</v>
       </c>
       <c r="AC8" t="n">
-        <v>141.0344672501638</v>
+        <v>171.3638375018916</v>
       </c>
       <c r="AD8" t="n">
-        <v>113952.4376289052</v>
+        <v>138457.8350634464</v>
       </c>
       <c r="AE8" t="n">
-        <v>155914.7523905454</v>
+        <v>189444.1182623024</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.75655749791758e-06</v>
+        <v>6.905763118842357e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.013310185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>141034.4672501638</v>
+        <v>171363.8375018916</v>
       </c>
     </row>
   </sheetData>
@@ -8460,28 +8460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.4742452708297</v>
+        <v>123.9116085823559</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.8415391072405</v>
+        <v>169.5413294566633</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.5906974802068</v>
+        <v>153.3605429261168</v>
       </c>
       <c r="AD2" t="n">
-        <v>101474.2452708297</v>
+        <v>123911.6085823559</v>
       </c>
       <c r="AE2" t="n">
-        <v>138841.5391072405</v>
+        <v>169541.3294566633</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.939710362595631e-06</v>
+        <v>7.805291575400626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.157986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>125590.6974802068</v>
+        <v>153360.5429261168</v>
       </c>
     </row>
     <row r="3">
@@ -8566,28 +8566,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.1377081128434</v>
+        <v>123.5750714243696</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.3810741207123</v>
+        <v>169.0808644701351</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.174178625726</v>
+        <v>152.9440240716361</v>
       </c>
       <c r="AD3" t="n">
-        <v>101137.7081128434</v>
+        <v>123575.0714243696</v>
       </c>
       <c r="AE3" t="n">
-        <v>138381.0741207123</v>
+        <v>169080.8644701351</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.952501997540127e-06</v>
+        <v>7.830634159316388e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.143518518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>125174.178625726</v>
+        <v>152944.0240716361</v>
       </c>
     </row>
   </sheetData>
@@ -8863,28 +8863,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.0292824959519</v>
+        <v>314.553180686755</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.6754418634575</v>
+        <v>430.385538922554</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.6306277628202</v>
+        <v>389.3101471376823</v>
       </c>
       <c r="AD2" t="n">
-        <v>276029.2824959519</v>
+        <v>314553.1806867549</v>
       </c>
       <c r="AE2" t="n">
-        <v>377675.4418634576</v>
+        <v>430385.538922554</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.049084597142988e-06</v>
+        <v>3.644248900898556e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.063078703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>341630.6277628202</v>
+        <v>389310.1471376823</v>
       </c>
     </row>
     <row r="3">
@@ -8969,28 +8969,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.3579195256937</v>
+        <v>241.8817282079452</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.2432770131572</v>
+        <v>330.9532516026782</v>
       </c>
       <c r="AC3" t="n">
-        <v>251.6881291719951</v>
+        <v>299.3675377656229</v>
       </c>
       <c r="AD3" t="n">
-        <v>203357.9195256937</v>
+        <v>241881.7282079452</v>
       </c>
       <c r="AE3" t="n">
-        <v>278243.2770131573</v>
+        <v>330953.2516026782</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.454439263548829e-06</v>
+        <v>4.365162668726026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.89699074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>251688.1291719952</v>
+        <v>299367.5377656229</v>
       </c>
     </row>
     <row r="4">
@@ -9075,28 +9075,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.0307286816734</v>
+        <v>205.7133573117255</v>
       </c>
       <c r="AB4" t="n">
-        <v>246.3259853773565</v>
+        <v>281.4660909065856</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.816979053705</v>
+        <v>254.6033622306834</v>
       </c>
       <c r="AD4" t="n">
-        <v>180030.7286816734</v>
+        <v>205713.3573117255</v>
       </c>
       <c r="AE4" t="n">
-        <v>246325.9853773566</v>
+        <v>281466.0909065856</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.754540786906676e-06</v>
+        <v>4.89888619003875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.25462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>222816.9790537049</v>
+        <v>254603.3622306834</v>
       </c>
     </row>
     <row r="5">
@@ -9181,28 +9181,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.4757849704974</v>
+        <v>192.9142527981773</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.3605839871946</v>
+        <v>263.953791454518</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.1886264979599</v>
+        <v>238.762412059649</v>
       </c>
       <c r="AD5" t="n">
-        <v>154475.7849704974</v>
+        <v>192914.2527981773</v>
       </c>
       <c r="AE5" t="n">
-        <v>211360.5839871946</v>
+        <v>263953.791454518</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.962295683807016e-06</v>
+        <v>5.268373401909351e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.887152777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>191188.62649796</v>
+        <v>238762.412059649</v>
       </c>
     </row>
     <row r="6">
@@ -9287,28 +9287,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>144.9050206223825</v>
+        <v>170.6729005984551</v>
       </c>
       <c r="AB6" t="n">
-        <v>198.2654419737871</v>
+        <v>233.5221921556653</v>
       </c>
       <c r="AC6" t="n">
-        <v>179.3432664591605</v>
+        <v>211.2351618868512</v>
       </c>
       <c r="AD6" t="n">
-        <v>144905.0206223825</v>
+        <v>170672.9005984551</v>
       </c>
       <c r="AE6" t="n">
-        <v>198265.4419737871</v>
+        <v>233522.1921556653</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.142686764525202e-06</v>
+        <v>5.589194708436051e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.606481481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>179343.2664591605</v>
+        <v>211235.1618868512</v>
       </c>
     </row>
     <row r="7">
@@ -9393,28 +9393,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.392428024758</v>
+        <v>163.9897158002385</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.354625466414</v>
+        <v>224.3779638734454</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.2828857728389</v>
+        <v>202.9636459178785</v>
       </c>
       <c r="AD7" t="n">
-        <v>138392.428024758</v>
+        <v>163989.7158002385</v>
       </c>
       <c r="AE7" t="n">
-        <v>189354.625466414</v>
+        <v>224377.9638734454</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.273953041786577e-06</v>
+        <v>5.822648704089424e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.421296296296297</v>
       </c>
       <c r="AH7" t="n">
-        <v>171282.8857728388</v>
+        <v>202963.6459178785</v>
       </c>
     </row>
     <row r="8">
@@ -9499,28 +9499,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>132.6306645572904</v>
+        <v>158.2279523327708</v>
       </c>
       <c r="AB8" t="n">
-        <v>181.4711264991645</v>
+        <v>216.4944649061959</v>
       </c>
       <c r="AC8" t="n">
-        <v>164.1517768824608</v>
+        <v>195.8325370275005</v>
       </c>
       <c r="AD8" t="n">
-        <v>132630.6645572904</v>
+        <v>158227.9523327708</v>
       </c>
       <c r="AE8" t="n">
-        <v>181471.1264991645</v>
+        <v>216494.4649061959</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.399166262817531e-06</v>
+        <v>6.045337481193233e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.25925925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>164151.7768824608</v>
+        <v>195832.5370275005</v>
       </c>
     </row>
     <row r="9">
@@ -9605,28 +9605,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>127.3430616792209</v>
+        <v>152.9403494547014</v>
       </c>
       <c r="AB9" t="n">
-        <v>174.236394968818</v>
+        <v>209.2597333758495</v>
       </c>
       <c r="AC9" t="n">
-        <v>157.6075179753589</v>
+        <v>189.2882781203985</v>
       </c>
       <c r="AD9" t="n">
-        <v>127343.0616792209</v>
+        <v>152940.3494547014</v>
       </c>
       <c r="AE9" t="n">
-        <v>174236.3949688181</v>
+        <v>209259.7333758495</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.518226377101859e-06</v>
+        <v>6.257083102250789e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.114583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>157607.5179753589</v>
+        <v>189288.2781203985</v>
       </c>
     </row>
     <row r="10">
@@ -9711,28 +9711,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>123.6785649037062</v>
+        <v>149.2758526791867</v>
       </c>
       <c r="AB10" t="n">
-        <v>169.2224688143735</v>
+        <v>204.2458072214048</v>
       </c>
       <c r="AC10" t="n">
-        <v>153.0721138960033</v>
+        <v>184.7528740410429</v>
       </c>
       <c r="AD10" t="n">
-        <v>123678.5649037062</v>
+        <v>149275.8526791867</v>
       </c>
       <c r="AE10" t="n">
-        <v>169222.4688143735</v>
+        <v>204245.8072214049</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.597916613259393e-06</v>
+        <v>6.398810318362002e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.021990740740741</v>
       </c>
       <c r="AH10" t="n">
-        <v>153072.1138960033</v>
+        <v>184752.8740410429</v>
       </c>
     </row>
     <row r="11">
@@ -9817,28 +9817,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>123.1557224061038</v>
+        <v>148.7530101815843</v>
       </c>
       <c r="AB11" t="n">
-        <v>168.5070926429712</v>
+        <v>203.5304310500026</v>
       </c>
       <c r="AC11" t="n">
-        <v>152.4250122223627</v>
+        <v>184.1057723674023</v>
       </c>
       <c r="AD11" t="n">
-        <v>123155.7224061038</v>
+        <v>148753.0101815843</v>
       </c>
       <c r="AE11" t="n">
-        <v>168507.0926429712</v>
+        <v>203530.4310500026</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.603969669489814e-06</v>
+        <v>6.409575536911566e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.016203703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>152425.0122223627</v>
+        <v>184105.7723674023</v>
       </c>
     </row>
     <row r="12">
@@ -9923,28 +9923,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>123.2714397850707</v>
+        <v>148.8687275605512</v>
       </c>
       <c r="AB12" t="n">
-        <v>168.6654222659641</v>
+        <v>203.6887606729955</v>
       </c>
       <c r="AC12" t="n">
-        <v>152.5682310883542</v>
+        <v>184.2489912333938</v>
       </c>
       <c r="AD12" t="n">
-        <v>123271.4397850707</v>
+        <v>148868.7275605512</v>
       </c>
       <c r="AE12" t="n">
-        <v>168665.4222659641</v>
+        <v>203688.7606729955</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.60161848235899e-06</v>
+        <v>6.405394005739422e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.019097222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>152568.2310883542</v>
+        <v>184248.9912333938</v>
       </c>
     </row>
   </sheetData>
@@ -10220,28 +10220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.1954631441833</v>
+        <v>161.4012586877629</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.6662000247062</v>
+        <v>220.8363226574898</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.18718023293</v>
+        <v>199.7600139688479</v>
       </c>
       <c r="AD2" t="n">
-        <v>126195.4631441833</v>
+        <v>161401.2586877629</v>
       </c>
       <c r="AE2" t="n">
-        <v>172666.2000247062</v>
+        <v>220836.3226574898</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.330835666133375e-06</v>
+        <v>6.349086835507997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.719328703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>156187.1802329301</v>
+        <v>199760.0139688479</v>
       </c>
     </row>
     <row r="3">
@@ -10326,28 +10326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.200731851665</v>
+        <v>135.6429047710786</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.5179912663218</v>
+        <v>185.5926064503267</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.8664496437601</v>
+        <v>167.8799085716189</v>
       </c>
       <c r="AD3" t="n">
-        <v>112200.731851665</v>
+        <v>135642.9047710786</v>
       </c>
       <c r="AE3" t="n">
-        <v>153517.9912663219</v>
+        <v>185592.6064503267</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.71429358568008e-06</v>
+        <v>7.080016810144513e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.233217592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>138866.4496437601</v>
+        <v>167879.9085716189</v>
       </c>
     </row>
     <row r="4">
@@ -10432,28 +10432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.6828297248038</v>
+        <v>130.1250026442173</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.9681541436929</v>
+        <v>178.0427693276978</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.0371583798494</v>
+        <v>161.0506173077083</v>
       </c>
       <c r="AD4" t="n">
-        <v>106682.8297248038</v>
+        <v>130125.0026442174</v>
       </c>
       <c r="AE4" t="n">
-        <v>145968.1541436929</v>
+        <v>178042.7693276978</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.881845898499864e-06</v>
+        <v>7.399397377129353e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.050925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>132037.1583798494</v>
+        <v>161050.6173077082</v>
       </c>
     </row>
     <row r="5">
@@ -10538,28 +10538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.7237550640073</v>
+        <v>130.1659279834209</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.0241499982896</v>
+        <v>178.0987651822945</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.0878100686741</v>
+        <v>161.101268996533</v>
       </c>
       <c r="AD5" t="n">
-        <v>106723.7550640073</v>
+        <v>130165.9279834209</v>
       </c>
       <c r="AE5" t="n">
-        <v>146024.1499982896</v>
+        <v>178098.7651822945</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.879346739488933e-06</v>
+        <v>7.394633594353315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.050925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>132087.8100686742</v>
+        <v>161101.268996533</v>
       </c>
     </row>
   </sheetData>
@@ -10835,28 +10835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.8357915458078</v>
+        <v>249.2103040867635</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.8430755283884</v>
+        <v>340.9805324340217</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.1808591973557</v>
+        <v>308.4378289878032</v>
       </c>
       <c r="AD2" t="n">
-        <v>211835.7915458078</v>
+        <v>249210.3040867635</v>
       </c>
       <c r="AE2" t="n">
-        <v>289843.0755283884</v>
+        <v>340980.5324340217</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.451072743756313e-06</v>
+        <v>4.451973012918603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.064814814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>262180.8591973557</v>
+        <v>308437.8289878033</v>
       </c>
     </row>
     <row r="3">
@@ -10941,28 +10941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.6093783976805</v>
+        <v>194.5826438308824</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.0670341612781</v>
+        <v>266.2365576696816</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.9188821291208</v>
+        <v>240.8273142711206</v>
       </c>
       <c r="AD3" t="n">
-        <v>169609.3783976805</v>
+        <v>194582.6438308824</v>
       </c>
       <c r="AE3" t="n">
-        <v>232067.0341612781</v>
+        <v>266236.5576696816</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.85104976455789e-06</v>
+        <v>5.178465895242147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.21412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>209918.8821291208</v>
+        <v>240827.3142711206</v>
       </c>
     </row>
     <row r="4">
@@ -11047,28 +11047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.703916553639</v>
+        <v>179.0783395860435</v>
       </c>
       <c r="AB4" t="n">
-        <v>193.8855501641899</v>
+        <v>245.0228846002748</v>
       </c>
       <c r="AC4" t="n">
-        <v>175.3813853766532</v>
+        <v>221.6382443858741</v>
       </c>
       <c r="AD4" t="n">
-        <v>141703.916553639</v>
+        <v>179078.3395860435</v>
       </c>
       <c r="AE4" t="n">
-        <v>193885.5501641899</v>
+        <v>245022.8846002748</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.134172063088554e-06</v>
+        <v>5.692711274382684e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.742476851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>175381.3853766532</v>
+        <v>221638.2443858741</v>
       </c>
     </row>
     <row r="5">
@@ -11153,28 +11153,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.1429643726055</v>
+        <v>157.0308889512357</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.8038335906653</v>
+        <v>214.8565899768711</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.5481694725971</v>
+        <v>194.350978582658</v>
       </c>
       <c r="AD5" t="n">
-        <v>132142.9643726055</v>
+        <v>157030.8889512357</v>
       </c>
       <c r="AE5" t="n">
-        <v>180803.8335906653</v>
+        <v>214856.5899768711</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.343020986496697e-06</v>
+        <v>6.072051207544046e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>163548.1694725971</v>
+        <v>194350.978582658</v>
       </c>
     </row>
     <row r="6">
@@ -11259,28 +11259,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.8957580782108</v>
+        <v>149.783682656841</v>
       </c>
       <c r="AB6" t="n">
-        <v>170.8878862145027</v>
+        <v>204.9406426007086</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.5785861968928</v>
+        <v>185.3813953069537</v>
       </c>
       <c r="AD6" t="n">
-        <v>124895.7580782108</v>
+        <v>149783.682656841</v>
       </c>
       <c r="AE6" t="n">
-        <v>170887.8862145027</v>
+        <v>204940.6426007086</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.513962751647287e-06</v>
+        <v>6.382538983628899e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.230324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>154578.5861968928</v>
+        <v>185381.3953069537</v>
       </c>
     </row>
     <row r="7">
@@ -11365,28 +11365,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.1116760680362</v>
+        <v>143.9996006466665</v>
       </c>
       <c r="AB7" t="n">
-        <v>162.973850032497</v>
+        <v>197.0266064187028</v>
       </c>
       <c r="AC7" t="n">
-        <v>147.4198545206756</v>
+        <v>178.2226636307365</v>
       </c>
       <c r="AD7" t="n">
-        <v>119111.6760680362</v>
+        <v>143999.6006466665</v>
       </c>
       <c r="AE7" t="n">
-        <v>162973.850032497</v>
+        <v>197026.6064187028</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.65829759541927e-06</v>
+        <v>6.644699635912084e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>147419.8545206756</v>
+        <v>178222.6636307365</v>
       </c>
     </row>
     <row r="8">
@@ -11471,28 +11471,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>116.942089977803</v>
+        <v>141.8300145564332</v>
       </c>
       <c r="AB8" t="n">
-        <v>160.0053266284583</v>
+        <v>194.0580830146641</v>
       </c>
       <c r="AC8" t="n">
-        <v>144.7346428239687</v>
+        <v>175.5374519340296</v>
       </c>
       <c r="AD8" t="n">
-        <v>116942.089977803</v>
+        <v>141830.0145564332</v>
       </c>
       <c r="AE8" t="n">
-        <v>160005.3266284583</v>
+        <v>194058.0830146641</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.706169508015529e-06</v>
+        <v>6.73165114051277e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>144734.6428239687</v>
+        <v>175537.4519340296</v>
       </c>
     </row>
     <row r="9">
@@ -11577,28 +11577,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>117.0011362946328</v>
+        <v>141.889060873263</v>
       </c>
       <c r="AB9" t="n">
-        <v>160.0861164040844</v>
+        <v>194.1388727902903</v>
       </c>
       <c r="AC9" t="n">
-        <v>144.8077221367982</v>
+        <v>175.6105312468592</v>
       </c>
       <c r="AD9" t="n">
-        <v>117001.1362946328</v>
+        <v>141889.060873263</v>
       </c>
       <c r="AE9" t="n">
-        <v>160086.1164040844</v>
+        <v>194138.8727902903</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.70272807223876e-06</v>
+        <v>6.725400334924524e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.013310185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>144807.7221367982</v>
+        <v>175610.5312468592</v>
       </c>
     </row>
   </sheetData>
@@ -11874,28 +11874,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.87187908714264</v>
+        <v>116.8841049240957</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.1761345357713</v>
+        <v>159.9259889198561</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.6568683625733</v>
+        <v>144.6628769949242</v>
       </c>
       <c r="AD2" t="n">
-        <v>95871.87908714265</v>
+        <v>116884.1049240957</v>
       </c>
       <c r="AE2" t="n">
-        <v>131176.1345357713</v>
+        <v>159925.9889198561</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.87501626358157e-06</v>
+        <v>8.252770538302224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.525462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>118656.8683625733</v>
+        <v>144662.8769949242</v>
       </c>
     </row>
   </sheetData>
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.53219736376879</v>
+        <v>120.3905381101486</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.8160993668085</v>
+        <v>164.7236454979257</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.9494400588602</v>
+        <v>149.0026519627377</v>
       </c>
       <c r="AD2" t="n">
-        <v>98532.19736376879</v>
+        <v>120390.5381101486</v>
       </c>
       <c r="AE2" t="n">
-        <v>134816.0993668085</v>
+        <v>164723.6454979257</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.964495424506515e-06</v>
+        <v>8.049296363341341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.233217592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>121949.4400588602</v>
+        <v>149002.6519627377</v>
       </c>
     </row>
   </sheetData>
@@ -12468,28 +12468,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.488769744579</v>
+        <v>342.0180075437415</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.4595502245853</v>
+        <v>467.9641266909291</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.5265685891325</v>
+        <v>423.3022872313229</v>
       </c>
       <c r="AD2" t="n">
-        <v>290488.769744579</v>
+        <v>342018.0075437416</v>
       </c>
       <c r="AE2" t="n">
-        <v>397459.5502245853</v>
+        <v>467964.1266909291</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.964460631122315e-06</v>
+        <v>3.477193357597127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.32349537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>359526.5685891325</v>
+        <v>423302.2872313229</v>
       </c>
     </row>
     <row r="3">
@@ -12574,28 +12574,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.9924443063047</v>
+        <v>264.682065460103</v>
       </c>
       <c r="AB3" t="n">
-        <v>309.2128323827318</v>
+        <v>362.1496789111243</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.7019936431514</v>
+        <v>327.5866218361126</v>
       </c>
       <c r="AD3" t="n">
-        <v>225992.4443063047</v>
+        <v>264682.065460103</v>
       </c>
       <c r="AE3" t="n">
-        <v>309212.8323827318</v>
+        <v>362149.6789111244</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.364353239664665e-06</v>
+        <v>4.185023232192902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.085069444444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>279701.9936431514</v>
+        <v>327586.6218361126</v>
       </c>
     </row>
     <row r="4">
@@ -12680,28 +12680,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.7291520524975</v>
+        <v>226.3334323517209</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.859307863782</v>
+        <v>309.6793872698009</v>
       </c>
       <c r="AC4" t="n">
-        <v>232.3450160256403</v>
+        <v>280.1240211866127</v>
       </c>
       <c r="AD4" t="n">
-        <v>187729.1520524975</v>
+        <v>226333.4323517209</v>
       </c>
       <c r="AE4" t="n">
-        <v>256859.307863782</v>
+        <v>309679.3872698009</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.660382158135528e-06</v>
+        <v>4.70900919182777e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.407986111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>232345.0160256404</v>
+        <v>280124.0211866127</v>
       </c>
     </row>
     <row r="5">
@@ -12786,28 +12786,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.3470381580443</v>
+        <v>199.1970426664723</v>
       </c>
       <c r="AB5" t="n">
-        <v>237.1810651393162</v>
+        <v>272.5501817294418</v>
       </c>
       <c r="AC5" t="n">
-        <v>214.5448371682042</v>
+        <v>246.5383749118463</v>
       </c>
       <c r="AD5" t="n">
-        <v>173347.0381580442</v>
+        <v>199197.0426664723</v>
       </c>
       <c r="AE5" t="n">
-        <v>237181.0651393162</v>
+        <v>272550.1817294418</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.876412667164064e-06</v>
+        <v>5.091393974262017e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.002893518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>214544.8371682042</v>
+        <v>246538.3749118463</v>
       </c>
     </row>
     <row r="6">
@@ -12892,28 +12892,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>150.5944166146751</v>
+        <v>189.283948259919</v>
       </c>
       <c r="AB6" t="n">
-        <v>206.0499245688745</v>
+        <v>258.9866486275425</v>
       </c>
       <c r="AC6" t="n">
-        <v>186.3848089609652</v>
+        <v>234.2693263726497</v>
       </c>
       <c r="AD6" t="n">
-        <v>150594.4166146751</v>
+        <v>189283.948259919</v>
       </c>
       <c r="AE6" t="n">
-        <v>206049.9245688745</v>
+        <v>258986.6486275425</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.04933651305618e-06</v>
+        <v>5.397477811616749e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.716435185185186</v>
       </c>
       <c r="AH6" t="n">
-        <v>186384.8089609652</v>
+        <v>234269.3263726498</v>
       </c>
     </row>
     <row r="7">
@@ -12998,28 +12998,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>143.2314521748664</v>
+        <v>169.166708029315</v>
       </c>
       <c r="AB7" t="n">
-        <v>195.9755917912676</v>
+        <v>231.4613530340424</v>
       </c>
       <c r="AC7" t="n">
-        <v>177.2719563642351</v>
+        <v>209.3710063585895</v>
       </c>
       <c r="AD7" t="n">
-        <v>143231.4521748664</v>
+        <v>169166.708029315</v>
       </c>
       <c r="AE7" t="n">
-        <v>195975.5917912676</v>
+        <v>231461.3530340424</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.193273986850797e-06</v>
+        <v>5.652254323733468e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>177271.9563642351</v>
+        <v>209371.0063585895</v>
       </c>
     </row>
     <row r="8">
@@ -13104,28 +13104,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.2069272632574</v>
+        <v>162.9715909171138</v>
       </c>
       <c r="AB8" t="n">
-        <v>187.7325710239273</v>
+        <v>222.9849204918552</v>
       </c>
       <c r="AC8" t="n">
-        <v>169.8156379297748</v>
+        <v>201.7035526414781</v>
       </c>
       <c r="AD8" t="n">
-        <v>137206.9272632574</v>
+        <v>162971.5909171138</v>
       </c>
       <c r="AE8" t="n">
-        <v>187732.5710239273</v>
+        <v>222984.9204918552</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.317820920134222e-06</v>
+        <v>5.872708611419955e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.33738425925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>169815.6379297748</v>
+        <v>201703.5526414781</v>
       </c>
     </row>
     <row r="9">
@@ -13210,28 +13210,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>131.9916730911968</v>
+        <v>157.7563367450532</v>
       </c>
       <c r="AB9" t="n">
-        <v>180.5968301849418</v>
+        <v>215.8491796528697</v>
       </c>
       <c r="AC9" t="n">
-        <v>163.3609221813846</v>
+        <v>195.2488368930879</v>
       </c>
       <c r="AD9" t="n">
-        <v>131991.6730911967</v>
+        <v>157756.3367450532</v>
       </c>
       <c r="AE9" t="n">
-        <v>180596.8301849418</v>
+        <v>215849.1796528697</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.431877073807745e-06</v>
+        <v>6.07459369563265e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>163360.9221813846</v>
+        <v>195248.836893088</v>
       </c>
     </row>
     <row r="10">
@@ -13316,28 +13316,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>128.1777326138662</v>
+        <v>153.9423962677226</v>
       </c>
       <c r="AB10" t="n">
-        <v>175.3784285646819</v>
+        <v>210.6307780326098</v>
       </c>
       <c r="AC10" t="n">
-        <v>158.640557487688</v>
+        <v>190.5284721993914</v>
       </c>
       <c r="AD10" t="n">
-        <v>128177.7326138662</v>
+        <v>153942.3962677226</v>
       </c>
       <c r="AE10" t="n">
-        <v>175378.4285646819</v>
+        <v>210630.7780326098</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.512372676596514e-06</v>
+        <v>6.217074929869945e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>158640.557487688</v>
+        <v>190528.4721993914</v>
       </c>
     </row>
     <row r="11">
@@ -13422,28 +13422,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>125.3069672422548</v>
+        <v>151.0716308961113</v>
       </c>
       <c r="AB11" t="n">
-        <v>171.4505207340154</v>
+        <v>206.7028702019434</v>
       </c>
       <c r="AC11" t="n">
-        <v>155.0875236675259</v>
+        <v>186.9754383792292</v>
       </c>
       <c r="AD11" t="n">
-        <v>125306.9672422548</v>
+        <v>151071.6308961113</v>
       </c>
       <c r="AE11" t="n">
-        <v>171450.5207340154</v>
+        <v>206702.8702019434</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.569002998756123e-06</v>
+        <v>6.317313426346956e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.030671296296297</v>
       </c>
       <c r="AH11" t="n">
-        <v>155087.5236675258</v>
+        <v>186975.4383792292</v>
       </c>
     </row>
     <row r="12">
@@ -13528,28 +13528,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>124.8958572780502</v>
+        <v>150.6605209319067</v>
       </c>
       <c r="AB12" t="n">
-        <v>170.8880219440994</v>
+        <v>206.1403714120273</v>
       </c>
       <c r="AC12" t="n">
-        <v>154.5787089726473</v>
+        <v>186.4666236843506</v>
       </c>
       <c r="AD12" t="n">
-        <v>124895.8572780502</v>
+        <v>150660.5209319066</v>
       </c>
       <c r="AE12" t="n">
-        <v>170888.0219440994</v>
+        <v>206140.3714120273</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.577952478992057e-06</v>
+        <v>6.333154453007061e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.021990740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>154578.7089726473</v>
+        <v>186466.6236843506</v>
       </c>
     </row>
     <row r="13">
@@ -13634,28 +13634,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>124.9804715921275</v>
+        <v>150.7451352459839</v>
       </c>
       <c r="AB13" t="n">
-        <v>171.00379498154</v>
+        <v>206.2561444494679</v>
       </c>
       <c r="AC13" t="n">
-        <v>154.683432793883</v>
+        <v>186.5713475055863</v>
       </c>
       <c r="AD13" t="n">
-        <v>124980.4715921275</v>
+        <v>150745.1352459839</v>
       </c>
       <c r="AE13" t="n">
-        <v>171003.79498154</v>
+        <v>206256.1444494679</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.577505004980261e-06</v>
+        <v>6.332362401674056e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.021990740740741</v>
       </c>
       <c r="AH13" t="n">
-        <v>154683.432793883</v>
+        <v>186571.3475055863</v>
       </c>
     </row>
   </sheetData>
@@ -13931,28 +13931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.31073782652275</v>
+        <v>125.3648618629312</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.4083563071863</v>
+        <v>171.5297347081553</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.9623658105407</v>
+        <v>155.1591775711514</v>
       </c>
       <c r="AD2" t="n">
-        <v>95310.73782652276</v>
+        <v>125364.8618629312</v>
       </c>
       <c r="AE2" t="n">
-        <v>130408.3563071863</v>
+        <v>171529.7347081553</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.694919265450953e-06</v>
+        <v>8.2278634975968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>117962.3658105407</v>
+        <v>155159.1775711513</v>
       </c>
     </row>
   </sheetData>
@@ -14228,28 +14228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.6095510066361</v>
+        <v>169.1559011348396</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.8104821245809</v>
+        <v>231.4465665642546</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.3633062867853</v>
+        <v>209.3576310887252</v>
       </c>
       <c r="AD2" t="n">
-        <v>133609.5510066361</v>
+        <v>169155.9011348395</v>
       </c>
       <c r="AE2" t="n">
-        <v>182810.4821245809</v>
+        <v>231446.5665642546</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.184886564359913e-06</v>
+        <v>6.021867804576704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.892939814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>165363.3062867853</v>
+        <v>209357.6310887252</v>
       </c>
     </row>
     <row r="3">
@@ -14334,28 +14334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.1943315314315</v>
+        <v>141.8635408405943</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.7186987671304</v>
+        <v>194.1039551557286</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.2844931304593</v>
+        <v>175.5789461023328</v>
       </c>
       <c r="AD3" t="n">
-        <v>118194.3315314315</v>
+        <v>141863.5408405943</v>
       </c>
       <c r="AE3" t="n">
-        <v>161718.6987671304</v>
+        <v>194103.9551557286</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.565869056024084e-06</v>
+        <v>6.742215658196719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.369212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>146284.4931304593</v>
+        <v>175578.9461023328</v>
       </c>
     </row>
     <row r="4">
@@ -14440,28 +14440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.3312370066831</v>
+        <v>133.0004463158459</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.5918218262414</v>
+        <v>181.9770782148397</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.3149883046263</v>
+        <v>164.6094412764998</v>
       </c>
       <c r="AD4" t="n">
-        <v>109331.2370066831</v>
+        <v>133000.4463158459</v>
       </c>
       <c r="AE4" t="n">
-        <v>149591.8218262414</v>
+        <v>181977.0782148397</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.820593217706277e-06</v>
+        <v>7.223838848625816e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.076967592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>135314.9883046263</v>
+        <v>164609.4412764998</v>
       </c>
     </row>
     <row r="5">
@@ -14546,28 +14546,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.9892938198991</v>
+        <v>131.6585031290619</v>
       </c>
       <c r="AB5" t="n">
-        <v>147.7557159557294</v>
+        <v>180.1409723443277</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.6541178014046</v>
+        <v>162.9485707732781</v>
       </c>
       <c r="AD5" t="n">
-        <v>107989.2938198991</v>
+        <v>131658.5031290619</v>
       </c>
       <c r="AE5" t="n">
-        <v>147755.7159557294</v>
+        <v>180140.9723443277</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.863935629491135e-06</v>
+        <v>7.305789106139116e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.030671296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>133654.1178014046</v>
+        <v>162948.5707732781</v>
       </c>
     </row>
   </sheetData>
@@ -14843,28 +14843,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.8043906218111</v>
+        <v>135.0325653756149</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.7662350089809</v>
+        <v>184.7575131631799</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.9499487204498</v>
+        <v>167.1245154157363</v>
       </c>
       <c r="AD2" t="n">
-        <v>105804.3906218111</v>
+        <v>135032.5653756149</v>
       </c>
       <c r="AE2" t="n">
-        <v>144766.2350089808</v>
+        <v>184757.5131631799</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.526858693852372e-06</v>
+        <v>8.085558967070751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.286458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>130949.9487204498</v>
+        <v>167124.5154157363</v>
       </c>
     </row>
   </sheetData>
@@ -15140,28 +15140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.2983449603321</v>
+        <v>260.9486113185408</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.5266468022992</v>
+        <v>357.0414022462668</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.3676124409201</v>
+        <v>322.9658719266376</v>
       </c>
       <c r="AD2" t="n">
-        <v>223298.3449603321</v>
+        <v>260948.6113185408</v>
       </c>
       <c r="AE2" t="n">
-        <v>305526.6468022992</v>
+        <v>357041.4022462668</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.343892797713946e-06</v>
+        <v>4.233482411689677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.296296296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>276367.6124409201</v>
+        <v>322965.8719266376</v>
       </c>
     </row>
     <row r="3">
@@ -15246,28 +15246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.9391065196931</v>
+        <v>215.5040320233268</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.4641356594792</v>
+        <v>294.8621239810757</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.2282602562697</v>
+        <v>266.720896709999</v>
       </c>
       <c r="AD3" t="n">
-        <v>177939.1065196931</v>
+        <v>215504.0320233268</v>
       </c>
       <c r="AE3" t="n">
-        <v>243464.1356594792</v>
+        <v>294862.1239810757</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.738920019753528e-06</v>
+        <v>4.946971014186464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.387731481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>220228.2602562697</v>
+        <v>266720.896709999</v>
       </c>
     </row>
     <row r="4">
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.2562864840644</v>
+        <v>185.9064633337188</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.8507917731534</v>
+        <v>254.365424747399</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.4909969092556</v>
+        <v>230.0891456136972</v>
       </c>
       <c r="AD4" t="n">
-        <v>148256.2864840644</v>
+        <v>185906.4633337188</v>
       </c>
       <c r="AE4" t="n">
-        <v>202850.7917731534</v>
+        <v>254365.424747399</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.023815039780785e-06</v>
+        <v>5.461541500362155e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.881365740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>183490.9969092556</v>
+        <v>230089.1456136972</v>
       </c>
     </row>
     <row r="5">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.3462123658013</v>
+        <v>162.5885650231902</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.9231470460528</v>
+        <v>222.4608475658793</v>
       </c>
       <c r="AC5" t="n">
-        <v>169.9880256438238</v>
+        <v>201.2294965000162</v>
       </c>
       <c r="AD5" t="n">
-        <v>137346.2123658013</v>
+        <v>162588.5650231902</v>
       </c>
       <c r="AE5" t="n">
-        <v>187923.1470460528</v>
+        <v>222460.8475658793</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.245150669485039e-06</v>
+        <v>5.861312554886116e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.548611111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>169988.0256438238</v>
+        <v>201229.4965000162</v>
       </c>
     </row>
     <row r="6">
@@ -15564,28 +15564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>130.2440112143077</v>
+        <v>155.3157716711045</v>
       </c>
       <c r="AB6" t="n">
-        <v>178.2056021035829</v>
+        <v>212.5098908485625</v>
       </c>
       <c r="AC6" t="n">
-        <v>161.1979095520002</v>
+        <v>192.2282451255415</v>
       </c>
       <c r="AD6" t="n">
-        <v>130244.0112143077</v>
+        <v>155315.7716711045</v>
       </c>
       <c r="AE6" t="n">
-        <v>178205.6021035829</v>
+        <v>212509.8908485625</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.403845102305951e-06</v>
+        <v>6.147942596514152e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.33738425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>161197.9095520002</v>
+        <v>192228.2451255416</v>
       </c>
     </row>
     <row r="7">
@@ -15670,28 +15670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>123.2185701279498</v>
+        <v>148.2903305847465</v>
       </c>
       <c r="AB7" t="n">
-        <v>168.5930836686466</v>
+        <v>202.8973724136262</v>
       </c>
       <c r="AC7" t="n">
-        <v>152.5027963852368</v>
+        <v>183.5331319587781</v>
       </c>
       <c r="AD7" t="n">
-        <v>123218.5701279498</v>
+        <v>148290.3305847465</v>
       </c>
       <c r="AE7" t="n">
-        <v>168593.0836686465</v>
+        <v>202897.3724136262</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.572741684456398e-06</v>
+        <v>6.45299951320667e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.131944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>152502.7963852368</v>
+        <v>183533.1319587781</v>
       </c>
     </row>
     <row r="8">
@@ -15776,28 +15776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.3031338470843</v>
+        <v>144.374894303881</v>
       </c>
       <c r="AB8" t="n">
-        <v>163.2358110123115</v>
+        <v>197.5400997572911</v>
       </c>
       <c r="AC8" t="n">
-        <v>147.6568143122412</v>
+        <v>178.6871498857826</v>
       </c>
       <c r="AD8" t="n">
-        <v>119303.1338470843</v>
+        <v>144374.894303881</v>
       </c>
       <c r="AE8" t="n">
-        <v>163235.8110123115</v>
+        <v>197540.0997572911</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.662469587809656e-06</v>
+        <v>6.6150638793988e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.030671296296297</v>
       </c>
       <c r="AH8" t="n">
-        <v>147656.8143122412</v>
+        <v>178687.1498857826</v>
       </c>
     </row>
     <row r="9">
@@ -15882,28 +15882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>105.4431065179057</v>
+        <v>143.0079425129884</v>
       </c>
       <c r="AB9" t="n">
-        <v>144.2719101592879</v>
+        <v>195.669776011336</v>
       </c>
       <c r="AC9" t="n">
-        <v>130.5028015406221</v>
+        <v>176.9953272131249</v>
       </c>
       <c r="AD9" t="n">
-        <v>105443.1065179057</v>
+        <v>143007.9425129884</v>
       </c>
       <c r="AE9" t="n">
-        <v>144271.9101592879</v>
+        <v>195669.776011336</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.693892207744622e-06</v>
+        <v>6.671818654597406e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.995949074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>130502.8015406221</v>
+        <v>176995.3272131249</v>
       </c>
     </row>
     <row r="10">
@@ -15988,28 +15988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>105.553224833362</v>
+        <v>143.1180608284447</v>
       </c>
       <c r="AB10" t="n">
-        <v>144.4225788965724</v>
+        <v>195.8204447486204</v>
       </c>
       <c r="AC10" t="n">
-        <v>130.6390906650851</v>
+        <v>177.1316163375878</v>
       </c>
       <c r="AD10" t="n">
-        <v>105553.224833362</v>
+        <v>143118.0608284447</v>
       </c>
       <c r="AE10" t="n">
-        <v>144422.5788965723</v>
+        <v>195820.4447486204</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.692769971318373e-06</v>
+        <v>6.669791698340314e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.995949074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>130639.0906650851</v>
+        <v>177131.6163375879</v>
       </c>
     </row>
   </sheetData>
@@ -16285,28 +16285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>308.4538108093508</v>
+        <v>360.4813331104377</v>
       </c>
       <c r="AB2" t="n">
-        <v>422.0401119710818</v>
+        <v>493.2264632757191</v>
       </c>
       <c r="AC2" t="n">
-        <v>381.7611960215783</v>
+        <v>446.1536218683727</v>
       </c>
       <c r="AD2" t="n">
-        <v>308453.8108093508</v>
+        <v>360481.3331104377</v>
       </c>
       <c r="AE2" t="n">
-        <v>422040.1119710818</v>
+        <v>493226.4632757191</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.870925277918509e-06</v>
+        <v>3.296525097688089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.644675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>381761.1960215783</v>
+        <v>446153.6218683727</v>
       </c>
     </row>
     <row r="3">
@@ -16391,28 +16391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.2491169189232</v>
+        <v>275.1845072987208</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.2464643437699</v>
+        <v>376.5195831697546</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.3962754661585</v>
+        <v>340.5850826005865</v>
       </c>
       <c r="AD3" t="n">
-        <v>236249.1169189232</v>
+        <v>275184.5072987208</v>
       </c>
       <c r="AE3" t="n">
-        <v>323246.4643437699</v>
+        <v>376519.5831697547</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.278322902165828e-06</v>
+        <v>4.014349860077283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>292396.2754661585</v>
+        <v>340585.0826005865</v>
       </c>
     </row>
     <row r="4">
@@ -16497,28 +16497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.9225700034548</v>
+        <v>234.9432117292694</v>
       </c>
       <c r="AB4" t="n">
-        <v>268.0699037723649</v>
+        <v>321.4596672508154</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.4856883948817</v>
+        <v>290.7800077799697</v>
       </c>
       <c r="AD4" t="n">
-        <v>195922.5700034547</v>
+        <v>234943.2117292694</v>
       </c>
       <c r="AE4" t="n">
-        <v>268069.9037723649</v>
+        <v>321459.6672508154</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.569822500347399e-06</v>
+        <v>4.527965103140666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.564236111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>242485.6883948818</v>
+        <v>290780.0077799697</v>
       </c>
     </row>
     <row r="5">
@@ -16603,28 +16603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>180.0969901060492</v>
+        <v>206.1108407651433</v>
       </c>
       <c r="AB5" t="n">
-        <v>246.4166471814351</v>
+        <v>282.0099453032839</v>
       </c>
       <c r="AC5" t="n">
-        <v>222.898988222447</v>
+        <v>255.0953119270655</v>
       </c>
       <c r="AD5" t="n">
-        <v>180096.9901060492</v>
+        <v>206110.8407651433</v>
       </c>
       <c r="AE5" t="n">
-        <v>246416.6471814351</v>
+        <v>282009.9453032839</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.789163839230039e-06</v>
+        <v>4.914439238222947e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.127314814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>222898.988222447</v>
+        <v>255095.3119270655</v>
       </c>
     </row>
     <row r="6">
@@ -16709,28 +16709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>155.7065697769424</v>
+        <v>194.6418706481854</v>
       </c>
       <c r="AB6" t="n">
-        <v>213.0445980577654</v>
+        <v>266.3175944140183</v>
       </c>
       <c r="AC6" t="n">
-        <v>192.7119206291645</v>
+        <v>240.9006169823136</v>
       </c>
       <c r="AD6" t="n">
-        <v>155706.5697769424</v>
+        <v>194641.8706481854</v>
       </c>
       <c r="AE6" t="n">
-        <v>213044.5980577654</v>
+        <v>266317.5944140183</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.975391456379608e-06</v>
+        <v>5.242567796354997e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.80613425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>192711.9206291645</v>
+        <v>240900.6169823136</v>
       </c>
     </row>
     <row r="7">
@@ -16815,28 +16815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>148.404774803639</v>
+        <v>174.5038768087537</v>
       </c>
       <c r="AB7" t="n">
-        <v>203.0539600428374</v>
+        <v>238.7639028173354</v>
       </c>
       <c r="AC7" t="n">
-        <v>183.6747750844296</v>
+        <v>215.9766110397603</v>
       </c>
       <c r="AD7" t="n">
-        <v>148404.774803639</v>
+        <v>174503.8768087537</v>
       </c>
       <c r="AE7" t="n">
-        <v>203053.9600428374</v>
+        <v>238763.9028173354</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.111553103207385e-06</v>
+        <v>5.482481325456322e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.594907407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>183674.7750844296</v>
+        <v>215976.6110397603</v>
       </c>
     </row>
     <row r="8">
@@ -16921,28 +16921,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>142.0462198667672</v>
+        <v>167.9747296712897</v>
       </c>
       <c r="AB8" t="n">
-        <v>194.353904658568</v>
+        <v>229.8304356582191</v>
       </c>
       <c r="AC8" t="n">
-        <v>175.8050407754276</v>
+        <v>207.8957414481073</v>
       </c>
       <c r="AD8" t="n">
-        <v>142046.2198667671</v>
+        <v>167974.7296712897</v>
       </c>
       <c r="AE8" t="n">
-        <v>194353.904658568</v>
+        <v>229830.4356582191</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.23595196530013e-06</v>
+        <v>5.701669112297714e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.418402777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>175805.0407754276</v>
+        <v>207895.7414481074</v>
       </c>
     </row>
     <row r="9">
@@ -17027,28 +17027,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>136.6276469560559</v>
+        <v>162.5561567605785</v>
       </c>
       <c r="AB9" t="n">
-        <v>186.9399741515712</v>
+        <v>222.4165051512223</v>
       </c>
       <c r="AC9" t="n">
-        <v>169.0986853904994</v>
+        <v>201.1893860631791</v>
       </c>
       <c r="AD9" t="n">
-        <v>136627.6469560559</v>
+        <v>162556.1567605785</v>
       </c>
       <c r="AE9" t="n">
-        <v>186939.9741515712</v>
+        <v>222416.5051512223</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.347006491769101e-06</v>
+        <v>5.897344502457671e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.273726851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>169098.6853904994</v>
+        <v>201189.3860631791</v>
       </c>
     </row>
     <row r="10">
@@ -17133,28 +17133,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>132.7780169290697</v>
+        <v>158.7065267335922</v>
       </c>
       <c r="AB10" t="n">
-        <v>181.6727405149607</v>
+        <v>217.1492715146118</v>
       </c>
       <c r="AC10" t="n">
-        <v>164.3341491395565</v>
+        <v>196.4248498122362</v>
       </c>
       <c r="AD10" t="n">
-        <v>132778.0169290697</v>
+        <v>158706.5267335922</v>
       </c>
       <c r="AE10" t="n">
-        <v>181672.7405149607</v>
+        <v>217149.2715146118</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.426182883136832e-06</v>
+        <v>6.036851389434195e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.175347222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>164334.1491395565</v>
+        <v>196424.8498122362</v>
       </c>
     </row>
     <row r="11">
@@ -17239,28 +17239,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>128.7749502038043</v>
+        <v>154.7034600083268</v>
       </c>
       <c r="AB11" t="n">
-        <v>176.1955680186154</v>
+        <v>211.6720990182666</v>
       </c>
       <c r="AC11" t="n">
-        <v>159.3797102990008</v>
+        <v>191.4704109716805</v>
       </c>
       <c r="AD11" t="n">
-        <v>128774.9502038043</v>
+        <v>154703.4600083268</v>
       </c>
       <c r="AE11" t="n">
-        <v>176195.5680186154</v>
+        <v>211672.0990182665</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.509708539448608e-06</v>
+        <v>6.184021576069855e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.074074074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>159379.7102990008</v>
+        <v>191470.4109716805</v>
       </c>
     </row>
     <row r="12">
@@ -17345,28 +17345,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>112.377553475577</v>
+        <v>151.2275134922484</v>
       </c>
       <c r="AB12" t="n">
-        <v>153.7599264129776</v>
+        <v>206.9161556470329</v>
       </c>
       <c r="AC12" t="n">
-        <v>139.0852948395772</v>
+        <v>187.1683681607875</v>
       </c>
       <c r="AD12" t="n">
-        <v>112377.553475577</v>
+        <v>151227.5134922484</v>
       </c>
       <c r="AE12" t="n">
-        <v>153759.9264129776</v>
+        <v>206916.1556470329</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.584288548545928e-06</v>
+        <v>6.315429748633884e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.990162037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>139085.2948395772</v>
+        <v>187168.3681607874</v>
       </c>
     </row>
     <row r="13">
@@ -17451,28 +17451,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>112.2001313566002</v>
+        <v>151.0500913732716</v>
       </c>
       <c r="AB13" t="n">
-        <v>153.5171696424823</v>
+        <v>206.6733988765376</v>
       </c>
       <c r="AC13" t="n">
-        <v>138.8657064345466</v>
+        <v>186.9487797557568</v>
       </c>
       <c r="AD13" t="n">
-        <v>112200.1313566002</v>
+        <v>151050.0913732716</v>
       </c>
       <c r="AE13" t="n">
-        <v>153517.1696424823</v>
+        <v>206673.3988765376</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.588934354281612e-06</v>
+        <v>6.323615545997049e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.984375</v>
       </c>
       <c r="AH13" t="n">
-        <v>138865.7064345466</v>
+        <v>186948.7797557568</v>
       </c>
     </row>
     <row r="14">
@@ -17557,28 +17557,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>112.2658295223184</v>
+        <v>151.1157895389898</v>
       </c>
       <c r="AB14" t="n">
-        <v>153.6070607712163</v>
+        <v>206.7632900052716</v>
       </c>
       <c r="AC14" t="n">
-        <v>138.9470184801173</v>
+        <v>187.0300918013276</v>
       </c>
       <c r="AD14" t="n">
-        <v>112265.8295223184</v>
+        <v>151115.7895389898</v>
       </c>
       <c r="AE14" t="n">
-        <v>153607.0607712163</v>
+        <v>206763.2900052716</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.588786083885793e-06</v>
+        <v>6.323354297145034e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.984375</v>
       </c>
       <c r="AH14" t="n">
-        <v>138947.0184801173</v>
+        <v>187030.0918013276</v>
       </c>
     </row>
   </sheetData>
@@ -17854,28 +17854,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.5773376496089</v>
+        <v>128.2826676369021</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.4555711155438</v>
+        <v>175.522005292606</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.6689341529828</v>
+        <v>158.7704314542103</v>
       </c>
       <c r="AD2" t="n">
-        <v>105577.3376496089</v>
+        <v>128282.6676369021</v>
       </c>
       <c r="AE2" t="n">
-        <v>144455.5711155438</v>
+        <v>175522.005292606</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.833478549085325e-06</v>
+        <v>7.513564977786002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.224537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>130668.9341529828</v>
+        <v>158770.4314542103</v>
       </c>
     </row>
     <row r="3">
@@ -17960,28 +17960,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.466042625566</v>
+        <v>125.1713726128591</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.1985600030013</v>
+        <v>171.2649941800636</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.8182062062674</v>
+        <v>154.9197035074949</v>
       </c>
       <c r="AD3" t="n">
-        <v>102466.042625566</v>
+        <v>125171.3726128592</v>
       </c>
       <c r="AE3" t="n">
-        <v>140198.5600030013</v>
+        <v>171264.9941800636</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.943136052701616e-06</v>
+        <v>7.728492169414452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.108796296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>126818.2062062674</v>
+        <v>154919.7035074949</v>
       </c>
     </row>
   </sheetData>
@@ -18257,28 +18257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.2901804334308</v>
+        <v>299.2276843135035</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.7215786585418</v>
+        <v>409.416518671489</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.2990279937021</v>
+        <v>370.3423807491741</v>
       </c>
       <c r="AD2" t="n">
-        <v>248290.1804334308</v>
+        <v>299227.6843135034</v>
       </c>
       <c r="AE2" t="n">
-        <v>339721.5786585418</v>
+        <v>409416.518671489</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.147284916153353e-06</v>
+        <v>3.837808697233889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.782407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>307299.0279937021</v>
+        <v>370342.3807491742</v>
       </c>
     </row>
     <row r="3">
@@ -18363,28 +18363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.0993646146639</v>
+        <v>232.3664981656442</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.5753137252775</v>
+        <v>317.9340940764857</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.2291785207085</v>
+        <v>287.5909103612238</v>
       </c>
       <c r="AD3" t="n">
-        <v>194099.3646146639</v>
+        <v>232366.4981656442</v>
       </c>
       <c r="AE3" t="n">
-        <v>265575.3137252775</v>
+        <v>317934.0940764857</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.549265270996616e-06</v>
+        <v>4.556261889136469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.714699074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>240229.1785207085</v>
+        <v>287590.9103612239</v>
       </c>
     </row>
     <row r="4">
@@ -18469,28 +18469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.9454494410587</v>
+        <v>199.4569613169299</v>
       </c>
       <c r="AB4" t="n">
-        <v>237.9998378567787</v>
+        <v>272.9058138937993</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.285467366667</v>
+        <v>246.8600660415705</v>
       </c>
       <c r="AD4" t="n">
-        <v>173945.4494410587</v>
+        <v>199456.96131693</v>
       </c>
       <c r="AE4" t="n">
-        <v>237999.8378567787</v>
+        <v>272905.8138937993</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.834099941967583e-06</v>
+        <v>5.065342435133311e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>215285.467366667</v>
+        <v>246860.0660415705</v>
       </c>
     </row>
     <row r="5">
@@ -18575,28 +18575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.5874187876253</v>
+        <v>186.769211484034</v>
       </c>
       <c r="AB5" t="n">
-        <v>203.3038615994112</v>
+        <v>255.5458748284219</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.9008263871831</v>
+        <v>231.1569351957597</v>
       </c>
       <c r="AD5" t="n">
-        <v>148587.4187876253</v>
+        <v>186769.211484034</v>
       </c>
       <c r="AE5" t="n">
-        <v>203303.8615994112</v>
+        <v>255545.8748284219</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.052885993582965e-06</v>
+        <v>5.456375318290307e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.771412037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>183900.8263871831</v>
+        <v>231156.9351957597</v>
       </c>
     </row>
     <row r="6">
@@ -18681,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.0318965520649</v>
+        <v>164.4580675733646</v>
       </c>
       <c r="AB6" t="n">
-        <v>190.2295745168353</v>
+        <v>225.0187834316583</v>
       </c>
       <c r="AC6" t="n">
-        <v>172.0743309138869</v>
+        <v>203.5433065568516</v>
       </c>
       <c r="AD6" t="n">
-        <v>139031.896552065</v>
+        <v>164458.0675733646</v>
       </c>
       <c r="AE6" t="n">
-        <v>190229.5745168353</v>
+        <v>225018.7834316583</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.244588083907717e-06</v>
+        <v>5.799001461654743e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.49074074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>172074.3309138869</v>
+        <v>203543.3065568516</v>
       </c>
     </row>
     <row r="7">
@@ -18787,28 +18787,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.1615894183021</v>
+        <v>158.5877604396018</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.1975613167522</v>
+        <v>216.9867702315751</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.8088817806158</v>
+        <v>196.2778574235805</v>
       </c>
       <c r="AD7" t="n">
-        <v>133161.5894183021</v>
+        <v>158587.7604396018</v>
       </c>
       <c r="AE7" t="n">
-        <v>182197.5613167522</v>
+        <v>216986.7702315751</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.374923354876935e-06</v>
+        <v>6.031947649987339e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.31712962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>164808.8817806158</v>
+        <v>196277.8574235805</v>
       </c>
     </row>
     <row r="8">
@@ -18893,28 +18893,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>128.0353037443753</v>
+        <v>153.461474765675</v>
       </c>
       <c r="AB8" t="n">
-        <v>175.1835511019264</v>
+        <v>209.9727600167493</v>
       </c>
       <c r="AC8" t="n">
-        <v>158.4642788564656</v>
+        <v>189.9332544994303</v>
       </c>
       <c r="AD8" t="n">
-        <v>128035.3037443753</v>
+        <v>153461.474765675</v>
       </c>
       <c r="AE8" t="n">
-        <v>175183.5511019264</v>
+        <v>209972.7600167493</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.487890658104021e-06</v>
+        <v>6.23385234161281e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.175347222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>158464.2788564656</v>
+        <v>189933.2544994303</v>
       </c>
     </row>
     <row r="9">
@@ -18999,28 +18999,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>123.4986460318904</v>
+        <v>148.92481705319</v>
       </c>
       <c r="AB9" t="n">
-        <v>168.9762958764947</v>
+        <v>203.7655047913176</v>
       </c>
       <c r="AC9" t="n">
-        <v>152.8494353578097</v>
+        <v>184.3184110007744</v>
       </c>
       <c r="AD9" t="n">
-        <v>123498.6460318904</v>
+        <v>148924.81705319</v>
       </c>
       <c r="AE9" t="n">
-        <v>168976.2958764947</v>
+        <v>203765.5047913176</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.586510509718041e-06</v>
+        <v>6.410114057697612e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH9" t="n">
-        <v>152849.4353578097</v>
+        <v>184318.4110007744</v>
       </c>
     </row>
     <row r="10">
@@ -19105,28 +19105,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>121.6069818930391</v>
+        <v>147.0331529143388</v>
       </c>
       <c r="AB10" t="n">
-        <v>166.3880375473878</v>
+        <v>201.1772464622107</v>
       </c>
       <c r="AC10" t="n">
-        <v>150.5081967709885</v>
+        <v>181.9771724139532</v>
       </c>
       <c r="AD10" t="n">
-        <v>121606.9818930391</v>
+        <v>147033.1529143387</v>
       </c>
       <c r="AE10" t="n">
-        <v>166388.0375473878</v>
+        <v>201177.2464622107</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.633328509718571e-06</v>
+        <v>6.493791135777687e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>150508.1967709886</v>
+        <v>181977.1724139532</v>
       </c>
     </row>
     <row r="11">
@@ -19211,28 +19211,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>121.5585165193138</v>
+        <v>146.9846875406134</v>
       </c>
       <c r="AB11" t="n">
-        <v>166.3217250849154</v>
+        <v>201.1109339997384</v>
       </c>
       <c r="AC11" t="n">
-        <v>150.4482130768644</v>
+        <v>181.9171887198291</v>
       </c>
       <c r="AD11" t="n">
-        <v>121558.5165193138</v>
+        <v>146984.6875406134</v>
       </c>
       <c r="AE11" t="n">
-        <v>166321.7250849154</v>
+        <v>201110.9339997384</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.633429193589541e-06</v>
+        <v>6.493971086483237e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>150448.2130768644</v>
+        <v>181917.1887198291</v>
       </c>
     </row>
   </sheetData>
@@ -19508,28 +19508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.919313073152</v>
+        <v>142.2964084597324</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.7106504964401</v>
+        <v>194.6962237290047</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.1817743789371</v>
+        <v>176.1146893942298</v>
       </c>
       <c r="AD2" t="n">
-        <v>118919.313073152</v>
+        <v>142296.4084597325</v>
       </c>
       <c r="AE2" t="n">
-        <v>162710.6504964401</v>
+        <v>194696.2237290047</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.492457341833946e-06</v>
+        <v>6.714958492235893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.542824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>147181.7743789371</v>
+        <v>176114.6893942298</v>
       </c>
     </row>
     <row r="3">
@@ -19614,28 +19614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.5243902183949</v>
+        <v>129.7308934043832</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.7513702211666</v>
+        <v>177.5035316788843</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.8410640106309</v>
+        <v>160.5628437432727</v>
       </c>
       <c r="AD3" t="n">
-        <v>106524.3902183949</v>
+        <v>129730.8934043832</v>
       </c>
       <c r="AE3" t="n">
-        <v>145751.3702211666</v>
+        <v>177503.5316788843</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.865297647901774e-06</v>
+        <v>7.431819697522171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.105902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>131841.0640106309</v>
+        <v>160562.8437432726</v>
       </c>
     </row>
     <row r="4">
@@ -19720,28 +19720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.3693709337677</v>
+        <v>128.575874119756</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.1710218800859</v>
+        <v>175.9231833378036</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.4115418971896</v>
+        <v>159.1333216298313</v>
       </c>
       <c r="AD4" t="n">
-        <v>105369.3709337677</v>
+        <v>128575.874119756</v>
       </c>
       <c r="AE4" t="n">
-        <v>144171.0218800859</v>
+        <v>175923.1833378036</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.898972838829348e-06</v>
+        <v>7.49656709087989e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.071180555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>130411.5418971896</v>
+        <v>159133.3216298313</v>
       </c>
     </row>
   </sheetData>
@@ -20017,28 +20017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.7549528766377</v>
+        <v>185.9407532639275</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.3202626505944</v>
+        <v>254.4123417426756</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.1977674082248</v>
+        <v>230.131584916793</v>
       </c>
       <c r="AD2" t="n">
-        <v>161754.9528766377</v>
+        <v>185940.7532639275</v>
       </c>
       <c r="AE2" t="n">
-        <v>221320.2626505944</v>
+        <v>254412.3417426756</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.910861395277319e-06</v>
+        <v>5.422714000973367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.263310185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>200197.7674082248</v>
+        <v>230131.584916793</v>
       </c>
     </row>
     <row r="3">
@@ -20123,28 +20123,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.1721195719158</v>
+        <v>166.3653450354523</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.1072367868269</v>
+        <v>227.6284045984285</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.1089320830188</v>
+        <v>205.9038691420924</v>
       </c>
       <c r="AD3" t="n">
-        <v>130172.1195719158</v>
+        <v>166365.3450354523</v>
       </c>
       <c r="AE3" t="n">
-        <v>178107.2367868269</v>
+        <v>227628.4045984285</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.306362895370376e-06</v>
+        <v>6.159503298272171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.632523148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>161108.9320830188</v>
+        <v>205903.8691420924</v>
       </c>
     </row>
     <row r="4">
@@ -20229,28 +20229,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.4992315864764</v>
+        <v>143.5996911191945</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.5041205905693</v>
+        <v>196.4794325604528</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.8995168009251</v>
+        <v>177.7277112775544</v>
       </c>
       <c r="AD4" t="n">
-        <v>119499.2315864764</v>
+        <v>143599.6911191946</v>
       </c>
       <c r="AE4" t="n">
-        <v>163504.1205905693</v>
+        <v>196479.4325604528</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.576347857286397e-06</v>
+        <v>6.662464804927759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.282407407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>147899.5168009251</v>
+        <v>177727.7112775545</v>
       </c>
     </row>
     <row r="5">
@@ -20335,28 +20335,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.1489295545988</v>
+        <v>136.249389087317</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.4471130781198</v>
+        <v>186.4224250480034</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.8023359703619</v>
+        <v>168.6305304469913</v>
       </c>
       <c r="AD5" t="n">
-        <v>112148.9295545988</v>
+        <v>136249.389087317</v>
       </c>
       <c r="AE5" t="n">
-        <v>153447.1130781198</v>
+        <v>186422.4250480034</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.780424725558213e-06</v>
+        <v>7.042644532017425e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.050925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>138802.3359703619</v>
+        <v>168630.5304469913</v>
       </c>
     </row>
     <row r="6">
@@ -20441,28 +20441,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>110.7306172540696</v>
+        <v>134.8310767867878</v>
       </c>
       <c r="AB6" t="n">
-        <v>151.5065156170141</v>
+        <v>184.4818275868977</v>
       </c>
       <c r="AC6" t="n">
-        <v>137.0469464072979</v>
+        <v>166.8751408839272</v>
       </c>
       <c r="AD6" t="n">
-        <v>110730.6172540696</v>
+        <v>134831.0767867878</v>
       </c>
       <c r="AE6" t="n">
-        <v>151506.5156170141</v>
+        <v>184481.8275868977</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.821398913896056e-06</v>
+        <v>7.118976337145154e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.007523148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>137046.9464072979</v>
+        <v>166875.1408839272</v>
       </c>
     </row>
   </sheetData>
@@ -20738,28 +20738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.7342798642043</v>
+        <v>121.8899954964015</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.4608416760406</v>
+        <v>166.775269245187</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.4372104705101</v>
+        <v>150.8584716190331</v>
       </c>
       <c r="AD2" t="n">
-        <v>99734.27986420429</v>
+        <v>121889.9954964015</v>
       </c>
       <c r="AE2" t="n">
-        <v>136460.8416760406</v>
+        <v>166775.269245187</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.965219435675233e-06</v>
+        <v>7.948271870664276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.17824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>123437.2104705101</v>
+        <v>150858.4716190331</v>
       </c>
     </row>
   </sheetData>
@@ -21035,28 +21035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.44852801461867</v>
+        <v>117.6537746823419</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.9651310382988</v>
+        <v>160.9790850385212</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.3705641462634</v>
+        <v>145.615467098054</v>
       </c>
       <c r="AD2" t="n">
-        <v>96448.52801461867</v>
+        <v>117653.7746823419</v>
       </c>
       <c r="AE2" t="n">
-        <v>131965.1310382988</v>
+        <v>160979.0850385212</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.930412752641455e-06</v>
+        <v>8.222669278352174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.392361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>119370.5641462634</v>
+        <v>145615.467098054</v>
       </c>
     </row>
   </sheetData>
@@ -35577,28 +35577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.635481098217</v>
+        <v>273.7253203188903</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.4068607421783</v>
+        <v>374.5230591691643</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.6368024539115</v>
+        <v>338.7791040484734</v>
       </c>
       <c r="AD2" t="n">
-        <v>235635.481098217</v>
+        <v>273725.3203188903</v>
       </c>
       <c r="AE2" t="n">
-        <v>322406.8607421783</v>
+        <v>374523.0591691643</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.241697810953126e-06</v>
+        <v>4.027222135692054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.539351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>291636.8024539115</v>
+        <v>338779.1040484734</v>
       </c>
     </row>
     <row r="3">
@@ -35683,28 +35683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.2644497543192</v>
+        <v>223.2689481204174</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.4869934444249</v>
+        <v>305.4864247490308</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.2945505613925</v>
+        <v>276.3312291239636</v>
       </c>
       <c r="AD3" t="n">
-        <v>185264.4497543192</v>
+        <v>223268.9481204174</v>
       </c>
       <c r="AE3" t="n">
-        <v>253486.9934444249</v>
+        <v>305486.4247490308</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.649491124453064e-06</v>
+        <v>4.759825009678846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.532407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>229294.5505613925</v>
+        <v>276331.2291239636</v>
       </c>
     </row>
     <row r="4">
@@ -35789,28 +35789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.0137979090486</v>
+        <v>191.9329554205752</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.7284729082901</v>
+        <v>262.6111370906985</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.6168432132524</v>
+        <v>237.5478987438847</v>
       </c>
       <c r="AD4" t="n">
-        <v>154013.7979090486</v>
+        <v>191932.9554205752</v>
       </c>
       <c r="AE4" t="n">
-        <v>210728.4729082901</v>
+        <v>262611.1370906985</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.935473413393627e-06</v>
+        <v>5.273593724984693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.994212962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>190616.8432132524</v>
+        <v>237547.8987438847</v>
       </c>
     </row>
     <row r="5">
@@ -35895,28 +35895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.787343870328</v>
+        <v>180.7065013818545</v>
       </c>
       <c r="AB5" t="n">
-        <v>195.3679432163229</v>
+        <v>247.2506073987313</v>
       </c>
       <c r="AC5" t="n">
-        <v>176.7223009164428</v>
+        <v>223.6533564470751</v>
       </c>
       <c r="AD5" t="n">
-        <v>142787.343870328</v>
+        <v>180706.5013818545</v>
       </c>
       <c r="AE5" t="n">
-        <v>195367.9432163229</v>
+        <v>247250.6073987313</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.148338685512568e-06</v>
+        <v>5.656007327571486e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.655671296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>176722.3009164428</v>
+        <v>223653.3564470751</v>
       </c>
     </row>
     <row r="6">
@@ -36001,28 +36001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>134.7356176140206</v>
+        <v>159.9866985120655</v>
       </c>
       <c r="AB6" t="n">
-        <v>184.3512161353562</v>
+        <v>218.900859019111</v>
       </c>
       <c r="AC6" t="n">
-        <v>166.7569948060066</v>
+        <v>198.0092682636751</v>
       </c>
       <c r="AD6" t="n">
-        <v>134735.6176140206</v>
+        <v>159986.6985120655</v>
       </c>
       <c r="AE6" t="n">
-        <v>184351.2161353562</v>
+        <v>218900.859019111</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.321529235406055e-06</v>
+        <v>5.967145078973928e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.41550925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>166756.9948060066</v>
+        <v>198009.2682636751</v>
       </c>
     </row>
     <row r="7">
@@ -36107,28 +36107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.3745098836272</v>
+        <v>153.625590781672</v>
       </c>
       <c r="AB7" t="n">
-        <v>175.6476679063693</v>
+        <v>210.197310790124</v>
       </c>
       <c r="AC7" t="n">
-        <v>158.8841010044846</v>
+        <v>190.1363744621532</v>
       </c>
       <c r="AD7" t="n">
-        <v>128374.5098836272</v>
+        <v>153625.590781672</v>
       </c>
       <c r="AE7" t="n">
-        <v>175647.6679063693</v>
+        <v>210197.310790124</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.464216359016372e-06</v>
+        <v>6.223483261521991e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.233217592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>158884.1010044846</v>
+        <v>190136.3744621532</v>
       </c>
     </row>
     <row r="8">
@@ -36213,28 +36213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>123.3452270260272</v>
+        <v>148.5963079240721</v>
       </c>
       <c r="AB8" t="n">
-        <v>168.766381224304</v>
+        <v>203.3160241080588</v>
       </c>
       <c r="AC8" t="n">
-        <v>152.659554665407</v>
+        <v>183.9118281230755</v>
       </c>
       <c r="AD8" t="n">
-        <v>123345.2270260272</v>
+        <v>148596.3079240721</v>
       </c>
       <c r="AE8" t="n">
-        <v>168766.381224304</v>
+        <v>203316.0241080588</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.575589334050277e-06</v>
+        <v>6.423565408269378e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.100115740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>152659.554665407</v>
+        <v>183911.8281230755</v>
       </c>
     </row>
     <row r="9">
@@ -36319,28 +36319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>120.3770357260344</v>
+        <v>145.6281166240793</v>
       </c>
       <c r="AB9" t="n">
-        <v>164.7051709402975</v>
+        <v>199.2548138240523</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.9859405909604</v>
+        <v>180.2382140486289</v>
       </c>
       <c r="AD9" t="n">
-        <v>120377.0357260344</v>
+        <v>145628.1166240793</v>
       </c>
       <c r="AE9" t="n">
-        <v>164705.1709402975</v>
+        <v>199254.8138240523</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.646578204852141e-06</v>
+        <v>6.551097295254404e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.021990740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>148985.9405909604</v>
+        <v>180238.2140486289</v>
       </c>
     </row>
     <row r="10">
@@ -36425,28 +36425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.0785034957853</v>
+        <v>145.3295843938301</v>
       </c>
       <c r="AB10" t="n">
-        <v>164.2967059725584</v>
+        <v>198.8463488563131</v>
       </c>
       <c r="AC10" t="n">
-        <v>148.616458946458</v>
+        <v>179.8687324041265</v>
       </c>
       <c r="AD10" t="n">
-        <v>120078.5034957853</v>
+        <v>145329.5843938302</v>
       </c>
       <c r="AE10" t="n">
-        <v>164296.7059725584</v>
+        <v>198846.3488563132</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.659499091400661e-06</v>
+        <v>6.574309737210993e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.007523148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>148616.4589464579</v>
+        <v>179868.7324041265</v>
       </c>
     </row>
     <row r="11">
@@ -36531,28 +36531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>120.1425855689502</v>
+        <v>145.393666466995</v>
       </c>
       <c r="AB11" t="n">
-        <v>164.3843858921641</v>
+        <v>198.9340287759188</v>
       </c>
       <c r="AC11" t="n">
-        <v>148.695770817596</v>
+        <v>179.9480442752646</v>
       </c>
       <c r="AD11" t="n">
-        <v>120142.5855689502</v>
+        <v>145393.666466995</v>
       </c>
       <c r="AE11" t="n">
-        <v>164384.3858921641</v>
+        <v>198934.0287759188</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.659245740684024e-06</v>
+        <v>6.573854591290276e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.007523148148148</v>
       </c>
       <c r="AH11" t="n">
-        <v>148695.770817596</v>
+        <v>179948.0442752645</v>
       </c>
     </row>
   </sheetData>
@@ -36828,28 +36828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.13605118885884</v>
+        <v>125.8468659429688</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.1693423429041</v>
+        <v>172.1892339549816</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.7461630035513</v>
+        <v>155.7557351354738</v>
       </c>
       <c r="AD2" t="n">
-        <v>95136.05118885884</v>
+        <v>125846.8659429688</v>
       </c>
       <c r="AE2" t="n">
-        <v>130169.3423429041</v>
+        <v>172189.2339549816</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.814536101334763e-06</v>
+        <v>8.292251313213729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.681712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>117746.1630035513</v>
+        <v>155755.7351354738</v>
       </c>
     </row>
   </sheetData>
@@ -37125,28 +37125,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.0950753263136</v>
+        <v>136.6322073494349</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.9004508795564</v>
+        <v>186.9462138829826</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.7850394272382</v>
+        <v>169.1043296107025</v>
       </c>
       <c r="AD2" t="n">
-        <v>108095.0753263136</v>
+        <v>136632.2073494349</v>
       </c>
       <c r="AE2" t="n">
-        <v>147900.4508795564</v>
+        <v>186946.2138829826</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.22838007280624e-06</v>
+        <v>7.678789051670201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>133785.0394272382</v>
+        <v>169104.3296107025</v>
       </c>
     </row>
   </sheetData>
@@ -37422,28 +37422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.4300617876651</v>
+        <v>135.3913230439514</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.8317706020798</v>
+        <v>185.2483812322691</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.1502823201054</v>
+        <v>167.5685357252493</v>
       </c>
       <c r="AD2" t="n">
-        <v>112430.0617876651</v>
+        <v>135391.3230439514</v>
       </c>
       <c r="AE2" t="n">
-        <v>153831.7706020798</v>
+        <v>185248.3812322691</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.649962445462665e-06</v>
+        <v>7.083037534191273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.392361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>139150.2823201054</v>
+        <v>167568.5357252494</v>
       </c>
     </row>
     <row r="3">
@@ -37528,28 +37528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.6656883274805</v>
+        <v>126.6269495837668</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.839968176993</v>
+        <v>173.2565788071823</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.3029606878648</v>
+        <v>156.7212140930087</v>
       </c>
       <c r="AD3" t="n">
-        <v>103665.6883274805</v>
+        <v>126626.9495837668</v>
       </c>
       <c r="AE3" t="n">
-        <v>141839.968176993</v>
+        <v>173256.5788071823</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.932633458016479e-06</v>
+        <v>7.631582737508489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.076967592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>128302.9606878647</v>
+        <v>156721.2140930087</v>
       </c>
     </row>
     <row r="4">
@@ -37634,28 +37634,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.7694054305216</v>
+        <v>126.7306666868079</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.9818784930495</v>
+        <v>173.3984891232387</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.4313272825292</v>
+        <v>156.8495806876731</v>
       </c>
       <c r="AD4" t="n">
-        <v>103769.4054305216</v>
+        <v>126730.6666868079</v>
       </c>
       <c r="AE4" t="n">
-        <v>141981.8784930495</v>
+        <v>173398.4891232387</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.929808409684078e-06</v>
+        <v>7.626100510314844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.079861111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>128431.3272825292</v>
+        <v>156849.5806876731</v>
       </c>
     </row>
   </sheetData>
@@ -37931,28 +37931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.7840039187086</v>
+        <v>177.7577548355083</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.4140586329117</v>
+        <v>243.216002284506</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.3324361950327</v>
+        <v>220.0038083823464</v>
       </c>
       <c r="AD2" t="n">
-        <v>153784.0039187086</v>
+        <v>177757.7548355082</v>
       </c>
       <c r="AE2" t="n">
-        <v>210414.0586329117</v>
+        <v>243216.002284506</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.037880507277756e-06</v>
+        <v>5.700255377228676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.083912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>190332.4361950327</v>
+        <v>220003.8083823464</v>
       </c>
     </row>
     <row r="3">
@@ -38037,28 +38037,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.5576214077245</v>
+        <v>148.6166236705448</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.4252327044066</v>
+        <v>203.3438210086502</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.1600876884618</v>
+        <v>183.9369721264876</v>
       </c>
       <c r="AD3" t="n">
-        <v>124557.6214077245</v>
+        <v>148616.6236705448</v>
       </c>
       <c r="AE3" t="n">
-        <v>170425.2327044066</v>
+        <v>203343.8210086502</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.42364734777003e-06</v>
+        <v>6.4241052790285e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.51099537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>154160.0876884618</v>
+        <v>183936.9721264876</v>
       </c>
     </row>
     <row r="4">
@@ -38143,28 +38143,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.8859883768841</v>
+        <v>137.7743984391121</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.8238335923961</v>
+        <v>188.5090101217927</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.9522256145045</v>
+        <v>170.5179747698794</v>
       </c>
       <c r="AD4" t="n">
-        <v>113885.9883768841</v>
+        <v>137774.3984391121</v>
       </c>
       <c r="AE4" t="n">
-        <v>155823.8335923961</v>
+        <v>188509.0101217927</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.710717234053059e-06</v>
+        <v>6.962760982900018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.16087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>140952.2256145045</v>
+        <v>170517.9747698794</v>
       </c>
     </row>
     <row r="5">
@@ -38249,28 +38249,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.6201257048616</v>
+        <v>133.5085357670897</v>
       </c>
       <c r="AB5" t="n">
-        <v>149.987092087959</v>
+        <v>182.6722686173557</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.672534527331</v>
+        <v>165.2382836827058</v>
       </c>
       <c r="AD5" t="n">
-        <v>109620.1257048616</v>
+        <v>133508.5357670897</v>
       </c>
       <c r="AE5" t="n">
-        <v>149987.092087959</v>
+        <v>182672.2686173557</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.832740618218736e-06</v>
+        <v>7.191724712734583e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.030671296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>135672.534527331</v>
+        <v>165238.2836827058</v>
       </c>
     </row>
     <row r="6">
@@ -38355,28 +38355,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.1386249626625</v>
+        <v>133.0270350248906</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.328281530169</v>
+        <v>182.0134580595657</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.0765999245297</v>
+        <v>164.6423490799046</v>
       </c>
       <c r="AD6" t="n">
-        <v>109138.6249626625</v>
+        <v>133027.0350248906</v>
       </c>
       <c r="AE6" t="n">
-        <v>149328.281530169</v>
+        <v>182013.4580595657</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.851102842257665e-06</v>
+        <v>7.226179447232873e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>135076.5999245297</v>
+        <v>164642.3490799046</v>
       </c>
     </row>
   </sheetData>
@@ -38652,28 +38652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.3951410764251</v>
+        <v>226.5719013564139</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.1387875445671</v>
+        <v>310.0056710825317</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.4069453649618</v>
+        <v>280.4191649301987</v>
       </c>
       <c r="AD2" t="n">
-        <v>189395.1410764251</v>
+        <v>226571.9013564139</v>
       </c>
       <c r="AE2" t="n">
-        <v>259138.7875445671</v>
+        <v>310005.6710825317</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.55411636284891e-06</v>
+        <v>4.666458090952101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.862268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>234406.9453649618</v>
+        <v>280419.1649301987</v>
       </c>
     </row>
     <row r="3">
@@ -38758,28 +38758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.7594476099209</v>
+        <v>187.5440439717977</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.6946566598518</v>
+        <v>256.6060348213766</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.4409911822132</v>
+        <v>232.115915006931</v>
       </c>
       <c r="AD3" t="n">
-        <v>162759.4476099209</v>
+        <v>187544.0439717977</v>
       </c>
       <c r="AE3" t="n">
-        <v>222694.6566598518</v>
+        <v>256606.0348213766</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.950754270810316e-06</v>
+        <v>5.391129136370054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.072337962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>201440.9911822132</v>
+        <v>232115.915006931</v>
       </c>
     </row>
     <row r="4">
@@ -38864,28 +38864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.3251790416312</v>
+        <v>173.4165984670483</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.5261242071128</v>
+        <v>237.2762406228798</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.724332703898</v>
+        <v>214.6309292371961</v>
       </c>
       <c r="AD4" t="n">
-        <v>136325.1790416312</v>
+        <v>173416.5984670483</v>
       </c>
       <c r="AE4" t="n">
-        <v>186526.1242071128</v>
+        <v>237276.2406228798</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.229337176036894e-06</v>
+        <v>5.900109647596828e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>168724.332703898</v>
+        <v>214630.9292371961</v>
       </c>
     </row>
     <row r="5">
@@ -38970,28 +38970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.8931077450791</v>
+        <v>151.5923632523843</v>
       </c>
       <c r="AB5" t="n">
-        <v>173.6207481455589</v>
+        <v>207.415359184886</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.0506276208456</v>
+        <v>187.6199284136246</v>
       </c>
       <c r="AD5" t="n">
-        <v>126893.1077450791</v>
+        <v>151592.3632523843</v>
       </c>
       <c r="AE5" t="n">
-        <v>173620.7481455589</v>
+        <v>207415.359184886</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.448892579896058e-06</v>
+        <v>6.301244891728013e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>157050.6276208456</v>
+        <v>187619.9284136246</v>
       </c>
     </row>
     <row r="6">
@@ -39076,28 +39076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>119.8284984937434</v>
+        <v>144.5277540010486</v>
       </c>
       <c r="AB6" t="n">
-        <v>163.9546380993225</v>
+        <v>197.7492491386497</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.3070375509483</v>
+        <v>178.8763383437273</v>
       </c>
       <c r="AD6" t="n">
-        <v>119828.4984937433</v>
+        <v>144527.7540010486</v>
       </c>
       <c r="AE6" t="n">
-        <v>163954.6380993225</v>
+        <v>197749.2491386497</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.62375055940689e-06</v>
+        <v>6.62071641038103e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.131944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>148307.0375509483</v>
+        <v>178876.3383437273</v>
       </c>
     </row>
     <row r="7">
@@ -39182,28 +39182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.752702344237</v>
+        <v>140.4519578515423</v>
       </c>
       <c r="AB7" t="n">
-        <v>158.3779539961351</v>
+        <v>192.1725650354623</v>
       </c>
       <c r="AC7" t="n">
-        <v>143.262584351642</v>
+        <v>173.8318851444211</v>
       </c>
       <c r="AD7" t="n">
-        <v>115752.702344237</v>
+        <v>140451.9578515423</v>
       </c>
       <c r="AE7" t="n">
-        <v>158377.9539961351</v>
+        <v>192172.5650354623</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.727992816422964e-06</v>
+        <v>6.811170584962636e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.016203703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>143262.584351642</v>
+        <v>173831.8851444211</v>
       </c>
     </row>
     <row r="8">
@@ -39288,28 +39288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>115.2265327783587</v>
+        <v>139.925788285664</v>
       </c>
       <c r="AB8" t="n">
-        <v>157.6580255831378</v>
+        <v>191.452636622465</v>
       </c>
       <c r="AC8" t="n">
-        <v>142.6113648959551</v>
+        <v>173.1806656887341</v>
       </c>
       <c r="AD8" t="n">
-        <v>115226.5327783587</v>
+        <v>139925.788285664</v>
       </c>
       <c r="AE8" t="n">
-        <v>157658.0255831378</v>
+        <v>191452.636622465</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.740357034500801e-06</v>
+        <v>6.833760434950231e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.001736111111112</v>
       </c>
       <c r="AH8" t="n">
-        <v>142611.3648959551</v>
+        <v>173180.6656887341</v>
       </c>
     </row>
   </sheetData>
